--- a/DEWSapp/dewsdocs/DATAspeiSynoptic17.xlsx
+++ b/DEWSapp/dewsdocs/DATAspeiSynoptic17.xlsx
@@ -2185,50 +2185,410 @@
       <c r="A43" t="n">
         <v>2022</v>
       </c>
+      <c r="B43" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-0.55</v>
+      </c>
+      <c r="H43" t="n">
+        <v>-0.37</v>
+      </c>
+      <c r="I43" t="n">
+        <v>-1.53</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="K43" t="n">
+        <v>-0.8100000000000001</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-0.54</v>
+      </c>
+      <c r="M43" t="n">
+        <v>-0.17</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>2023</v>
       </c>
+      <c r="B44" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-0.36</v>
+      </c>
+      <c r="H44" t="n">
+        <v>-1.02</v>
+      </c>
+      <c r="I44" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1.43</v>
+      </c>
+      <c r="K44" t="n">
+        <v>-0.42</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>2024</v>
       </c>
+      <c r="B45" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="H45" t="n">
+        <v>-0.35</v>
+      </c>
+      <c r="I45" t="n">
+        <v>-0.63</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-0.53</v>
+      </c>
+      <c r="K45" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>2025</v>
       </c>
+      <c r="B46" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-0.42</v>
+      </c>
+      <c r="H46" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="I46" t="n">
+        <v>-0.97</v>
+      </c>
+      <c r="J46" t="n">
+        <v>-0.89</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-0.32</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.71</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>2026</v>
       </c>
+      <c r="B47" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="H47" t="n">
+        <v>-1.37</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="J47" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-0.73</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>2027</v>
       </c>
+      <c r="B48" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-0.48</v>
+      </c>
+      <c r="H48" t="n">
+        <v>-0.42</v>
+      </c>
+      <c r="I48" t="n">
+        <v>-1.43</v>
+      </c>
+      <c r="J48" t="n">
+        <v>-0.26</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-0.87</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-0.28</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.41</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>2028</v>
       </c>
+      <c r="B49" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="H49" t="n">
+        <v>-0.8100000000000001</v>
+      </c>
+      <c r="I49" t="n">
+        <v>-1.3</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1.28</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-0.42</v>
+      </c>
+      <c r="L49" t="n">
+        <v>-0.38</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>2029</v>
       </c>
+      <c r="B50" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I50" t="n">
+        <v>-1.36</v>
+      </c>
+      <c r="J50" t="n">
+        <v>-1.43</v>
+      </c>
+      <c r="K50" t="n">
+        <v>-1.16</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>2030</v>
       </c>
+      <c r="B51" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="H51" t="n">
+        <v>-0.57</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1.23</v>
+      </c>
+      <c r="K51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L51" t="n">
+        <v>-0.53</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>2031</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="H52" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="I52" t="n">
+        <v>-0.75</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="K52" t="n">
+        <v>-0.92</v>
+      </c>
+      <c r="L52" t="n">
+        <v>-0.55</v>
+      </c>
+      <c r="M52" t="n">
+        <v>-0.19</v>
       </c>
     </row>
     <row r="53">
